--- a/data/service.xlsx
+++ b/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\backup_desktop\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC664CC4-4E0D-4089-98F0-CD5477BF338A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037C6BBA-6E73-400D-B198-494BD8B6670D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     </r>
   </si>
   <si>
-    <t>Aug. 2019 - Present</t>
-  </si>
-  <si>
     <t>Funding Reviewer</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>The ACM CHI Conference on Human Factors in Computing Systems (CHI 2020)</t>
+  </si>
+  <si>
+    <t>Aug. 2019 - May. 2020</t>
   </si>
 </sst>
 </file>
@@ -976,7 +976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -1002,7 +1004,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1016,10 +1018,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1036,7 +1038,7 @@
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1050,10 +1052,10 @@
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
@@ -1064,7 +1066,7 @@
         <v>2019</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
@@ -1078,7 +1080,7 @@
         <v>2018</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -1092,7 +1094,7 @@
         <v>2017</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1100,13 +1102,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2016</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>

--- a/data/service.xlsx
+++ b/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\backup_desktop\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037C6BBA-6E73-400D-B198-494BD8B6670D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1499ACD-8B49-40D7-978F-C439E7AE8EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>what</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Libraries' Accessibility Student Advisory Group</t>
   </si>
   <si>
-    <t>Honolulu, HI</t>
-  </si>
-  <si>
     <t>The 14th International Conference of the Learning Sciences (ICLS)</t>
   </si>
   <si>
@@ -104,17 +101,157 @@
     <t>The 1st International Conference on Quantitative Ethnography (ICQE)</t>
   </si>
   <si>
-    <t>The ACM CHI Conference on Human Factors in Computing Systems (CHI 2020)</t>
-  </si>
-  <si>
     <t>Aug. 2019 - May. 2020</t>
+  </si>
+  <si>
+    <t>2019, 2020</t>
+  </si>
+  <si>
+    <t>The ACM CHI Conference on Human Factors in Computing Systems (CHI 2020, 2021)</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>etwork of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cademic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rograms in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>earning </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ciences </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.3"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.2"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NAPLeS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.3"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>International Society of the Learning Sciences</t>
+  </si>
+  <si>
+    <t>Reviewed abstracts on equity and disability.</t>
+  </si>
+  <si>
+    <t>Honolulu, HI, Yokohama, Japan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +408,32 @@
       <sz val="4"/>
       <color rgb="FF545454"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="16.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14.3"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.2"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -614,11 +777,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -974,15 +1140,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,29 +1163,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" ht="301" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1029,22 +1193,25 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2019</v>
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1052,65 +1219,79 @@
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>2019</v>
+      <c r="B6" t="s">
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>2017</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>2016</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>2016</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/service.xlsx
+++ b/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1499ACD-8B49-40D7-978F-C439E7AE8EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4884FCD-2213-4DEE-A60D-1A6BF26D2499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>College of Education Technology Committee</t>
   </si>
   <si>
-    <t>Working as a student committee member to support understanding of educational technology for College of Education.</t>
-  </si>
-  <si>
     <t>Reviewer</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>Honolulu, HI, Yokohama, Japan</t>
+  </si>
+  <si>
+    <t>Worked as a student committee member to support understanding of educational technology for College of Education.</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1165,19 +1167,19 @@
     </row>
     <row r="2" spans="1:5" ht="301" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2020</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1185,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1194,15 +1196,15 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1213,83 +1215,83 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2019</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2018</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>2016</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>

--- a/data/service.xlsx
+++ b/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4884FCD-2213-4DEE-A60D-1A6BF26D2499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D0F6EE-B5F6-4B4F-9203-A6920DADC7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>what</t>
   </si>
@@ -245,6 +245,42 @@
   </si>
   <si>
     <t>Worked as a student committee member to support understanding of educational technology for College of Education.</t>
+  </si>
+  <si>
+    <t>Oct. 2021 - Jul. 2022</t>
+  </si>
+  <si>
+    <t>Accessibility Chair</t>
+  </si>
+  <si>
+    <t>15th International Conference on Educational Data Mining</t>
+  </si>
+  <si>
+    <t>Durham</t>
+  </si>
+  <si>
+    <t>Diversity Committee</t>
+  </si>
+  <si>
+    <t>Sep. 2021 - Apr. 2022</t>
+  </si>
+  <si>
+    <t>Champaign, IL</t>
+  </si>
+  <si>
+    <t>School of Information Sciences at the University of Illinois at Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>Sep. 2021</t>
+  </si>
+  <si>
+    <t>Journal Reviewer</t>
+  </si>
+  <si>
+    <t>TechTrends</t>
+  </si>
+  <si>
+    <t>Special issue on ethnography and learning design</t>
   </si>
 </sst>
 </file>
@@ -777,7 +813,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -785,6 +821,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1140,11 +1177,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1165,94 +1200,94 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="301" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="301" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2019</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+        <v>2020</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>2019</v>
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1260,12 +1295,12 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1273,27 +1308,69 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>2017</v>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>2016</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/service.xlsx
+++ b/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\jy_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D0F6EE-B5F6-4B4F-9203-A6920DADC7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534B577E-E09E-4442-A5CB-3A715F0644B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="2440" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>what</t>
   </si>
@@ -281,6 +281,24 @@
   </si>
   <si>
     <t>Special issue on ethnography and learning design</t>
+  </si>
+  <si>
+    <t>Search Committee for Director/Assistant Dean, Diversity, Equity, Inclusion, and Accessibility (DEIA)</t>
+  </si>
+  <si>
+    <t>April 2022 - Present</t>
+  </si>
+  <si>
+    <t>Program Committee Member</t>
+  </si>
+  <si>
+    <t>Dec. 2021 - Feb. 2022</t>
+  </si>
+  <si>
+    <t>International Web for All Conference (W4A) 2022</t>
+  </si>
+  <si>
+    <t>Virtual</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1202,10 +1220,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -1216,106 +1234,106 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="301" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="301" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>2019</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1326,24 +1344,24 @@
         <v>2019</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>2018</v>
+      <c r="B11" t="s">
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1351,26 +1369,54 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>2017</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>2016</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>5</v>
       </c>
     </row>
